--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem2/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem2/123/correct_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,52 +536,52 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14-16</t>
+          <t>0-13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Critical low battery Return to home or land promptly .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>14-16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -596,67 +596,67 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Return to home or land promptly</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+          <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Incompatible firmware version</t>
+          <t>Return to home or land promptly</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RTH Altitude 98FT</t>
+          <t>Incompatible firmware version</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -666,27 +666,27 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed Restart aircraft .</t>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed</t>
+          <t>RTH Altitude 98FT</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -696,57 +696,57 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed Restart aircraft .</t>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Data Recorder File Index is 1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Satellite positioning off Fly with Caution .</t>
+          <t>Gyroscope initialization failed Restart aircraft .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Satellite positioning off</t>
+          <t>Gyroscope initialization failed</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -767,21 +767,21 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Satellite positioning off Fly with Caution .</t>
+          <t>Gyroscope initialization failed Restart aircraft .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fly with Caution</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -797,16 +797,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate Fly with caution .</t>
+          <t>Satellite positioning off Fly with Caution .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate</t>
+          <t>Satellite positioning off</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -827,16 +827,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate Fly with caution .</t>
+          <t>Satellite positioning off Fly with Caution .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Fly with Caution</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -857,51 +857,51 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Strong Interference Now Fly with caution .</t>
+          <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Visual positioning inaccurate</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
+          <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Please fly away or land with caution</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -926,42 +926,42 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone</t>
+          <t>Please fly away or land with caution</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>High wind velocity Fly with caution .</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>High wind velocity</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -986,52 +986,52 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>High wind velocity</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Critical low battery Recharge promptly .</t>
+          <t>High wind velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1046,52 +1046,52 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked Fly with caution .</t>
+          <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1106,52 +1106,52 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Vision sensor(s) blocked</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
+          <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Compass interference</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1166,52 +1166,52 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Compass interference</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1226,42 +1226,42 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Strong Interference Detected Be careful when flying long distances .</t>
+          <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Be careful when flying long distances</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1277,31 +1277,31 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
+          <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Camera sensor error</t>
+          <t>Be careful when flying long distances</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1316,22 +1316,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Contact DJI Support to arrange for repairs</t>
+          <t>Camera sensor error</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1346,22 +1346,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Hardware malfunction</t>
+          <t>Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2996,20 +2996,50 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>Not suitable for shooting a 4K video</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>7-13</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>45</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
           <t>SD card write speed is too slow</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>0-6</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
         <is>
           <t>Event</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem2/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem2/123/correct_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,52 +536,52 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-13</t>
+          <t>14-16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+          <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14-16</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -596,67 +596,67 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Return to home or land promptly</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Critical low battery Return to home or land promptly .</t>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Return to home or land promptly</t>
+          <t>Incompatible firmware version</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Incompatible firmware version</t>
+          <t>RTH Altitude 98FT</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -666,27 +666,27 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+          <t>Gyroscope initialization failed Restart aircraft .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>RTH Altitude 98FT</t>
+          <t>Gyroscope initialization failed</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -696,57 +696,57 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+          <t>Gyroscope initialization failed Restart aircraft .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 1</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed Restart aircraft .</t>
+          <t>Satellite positioning off Fly with Caution .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed</t>
+          <t>Satellite positioning off</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -767,21 +767,21 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed Restart aircraft .</t>
+          <t>Satellite positioning off Fly with Caution .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Fly with Caution</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -797,16 +797,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Satellite positioning off Fly with Caution .</t>
+          <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Satellite positioning off</t>
+          <t>Visual positioning inaccurate</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -827,16 +827,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Satellite positioning off Fly with Caution .</t>
+          <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fly with Caution</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -857,51 +857,51 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate Fly with caution .</t>
+          <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate Fly with caution .</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Please fly away or land with caution</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -926,42 +926,42 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Please fly away or land with caution</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
+          <t>High wind velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone</t>
+          <t>High wind velocity</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -986,52 +986,52 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>High wind velocity</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>High wind velocity Fly with caution .</t>
+          <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1046,52 +1046,52 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Critical low battery Recharge promptly .</t>
+          <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Vision sensor(s) blocked</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1106,52 +1106,52 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked Fly with caution .</t>
+          <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Compass interference</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1166,52 +1166,52 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Compass interference</t>
+          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
+          <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1226,42 +1226,42 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Be careful when flying long distances</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1277,31 +1277,31 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Strong Interference Detected Be careful when flying long distances .</t>
+          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Be careful when flying long distances</t>
+          <t>Camera sensor error</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1316,22 +1316,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Camera sensor error</t>
+          <t>Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1346,22 +1346,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Contact DJI Support to arrange for repairs</t>
+          <t>Hardware malfunction</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2996,50 +2996,20 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Not suitable for shooting a 4K video</t>
+          <t>SD card write speed is too slow</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>45</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>SD card write speed is too slow</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>0-6</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
